--- a/data/extractions/251008 Fiche d'extraction d'échantillons.xlsx
+++ b/data/extractions/251008 Fiche d'extraction d'échantillons.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\02 - Extractions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49355DA-B951-47FD-B2FF-5DECD00FEB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B49355DA-B951-47FD-B2FF-5DECD00FEB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35446ECC-1734-4F68-950C-48F97C86F83B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Extractions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Extractions!$A$1:$L$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Extractions!$A$1:$L$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Extractions!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Extractions!$A$1:$L$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -641,30 +641,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8F8353-8CB1-400B-B8E5-1BA03F155009}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I249" sqref="I249"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.26953125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.54296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="71.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -702,7 +702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>236</v>
       </c>
@@ -740,7 +740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>237</v>
       </c>
@@ -778,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>238</v>
       </c>
@@ -816,7 +816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>239</v>
       </c>
@@ -854,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>240</v>
       </c>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>241</v>
       </c>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>242</v>
       </c>
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>243</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>244</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>245</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>246</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>247</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>248</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>249</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>250</v>
       </c>
@@ -1271,46 +1271,6 @@
       <c r="L16" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H52" s="6"/>
-      <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H53" s="6"/>
-      <c r="L53" s="6"/>
-    </row>
-    <row r="54" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H54" s="6"/>
-      <c r="L54" s="6"/>
-    </row>
-    <row r="55" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H55" s="6"/>
-      <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H56" s="6"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H57" s="6"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H58" s="6"/>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H59" s="6"/>
-      <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H60" s="6"/>
-      <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="8:12" x14ac:dyDescent="0.35">
-      <c r="H61" s="6"/>
-      <c r="L61" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{3F8F8353-8CB1-400B-B8E5-1BA03F155009}"/>
@@ -1320,6 +1280,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-10-10T09:38:01+00:00</Uploaded>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="acfb06d1c88afc8a1cccc230ca6ed826">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57eba2bb3b52671f3135bc8cf726f83f" ns2:_="">
     <xsd:import namespace="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
@@ -1463,31 +1440,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-10-10T09:38:01+00:00</Uploaded>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCFAEBB-0220-430F-9245-EA22E6F627D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C48D738-D075-4FCE-87EA-A936D960AA62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{036927AB-E783-4385-9232-3F45CEDF3305}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{036927AB-E783-4385-9232-3F45CEDF3305}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C48D738-D075-4FCE-87EA-A936D960AA62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCFAEBB-0220-430F-9245-EA22E6F627D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>